--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D4541A-CFCE-4821-9F71-C9EACFB75B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC1F5A9-7470-406D-8017-ABC8CBE0EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="2235" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,18 +595,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1757,7 +1757,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2009,9 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7">
+        <v>9</v>
+      </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -2035,7 +2037,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC1F5A9-7470-406D-8017-ABC8CBE0EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6044B54F-F934-4167-AD36-02B2283E9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="2235" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,18 +595,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2012,9 @@
       <c r="J6" s="7">
         <v>9</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8">
+        <v>7</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -2037,7 +2039,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6044B54F-F934-4167-AD36-02B2283E9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F47F9-BF27-4878-AC9E-20C563A6BC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -591,22 +591,22 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1159,9 @@
       <c r="I6" s="8"/>
       <c r="J6" s="7"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>120</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1183,7 +1185,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>60</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1756,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,7 +2017,9 @@
       <c r="K6" s="8">
         <v>7</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>71</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -2039,7 +2043,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F47F9-BF27-4878-AC9E-20C563A6BC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99614445-16C3-41AD-828C-F7AE5C420738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,18 +595,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,9 +2020,13 @@
       <c r="L6" s="8">
         <v>71</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8">
+        <v>12</v>
+      </c>
       <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="8"/>
@@ -2043,7 +2047,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99614445-16C3-41AD-828C-F7AE5C420738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91D615-7165-482B-B4FE-67BEDBA1A545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,18 +595,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,9 +2027,15 @@
       <c r="O6" s="8">
         <v>1</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
+      <c r="P6" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>14</v>
+      </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -2047,7 +2053,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>144</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91D615-7165-482B-B4FE-67BEDBA1A545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D63F6-C017-447A-8D1D-D5FD24B326A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,11 +569,11 @@
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+'Hủy tb'!AH5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -591,22 +591,22 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1168,9 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="S6" s="8">
+        <v>60</v>
+      </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -1185,7 +1187,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1758,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,7 +1973,9 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
@@ -1988,7 +1992,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="8">
         <f>SUM(C5:AG5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2034,9 +2038,11 @@
         <v>1</v>
       </c>
       <c r="R6" s="8">
-        <v>14</v>
-      </c>
-      <c r="S6" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="S6" s="8">
+        <v>13</v>
+      </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
@@ -2053,7 +2059,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37D63F6-C017-447A-8D1D-D5FD24B326A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335352E7-AC60-487F-A1CB-16ADFAAA5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,18 +595,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,7 +2045,9 @@
       </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
+      <c r="V6" s="8">
+        <v>28</v>
+      </c>
       <c r="W6" s="8"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="8"/>
@@ -2059,7 +2061,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>186</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335352E7-AC60-487F-A1CB-16ADFAAA5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC857E57-13E4-4D8E-8A20-B73B0213B290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,18 +595,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2048,9 @@
       <c r="V6" s="8">
         <v>28</v>
       </c>
-      <c r="W6" s="8"/>
+      <c r="W6" s="8">
+        <v>15</v>
+      </c>
       <c r="X6" s="7"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -2061,7 +2063,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC857E57-13E4-4D8E-8A20-B73B0213B290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399AABC-66C7-45CE-915F-104096F72E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,22 +591,22 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1175,9 @@
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7">
+        <v>60</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -1187,7 +1189,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1760,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2053,9 @@
       <c r="W6" s="8">
         <v>15</v>
       </c>
-      <c r="X6" s="7"/>
+      <c r="X6" s="7">
+        <v>15</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
@@ -2063,7 +2067,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C399AABC-66C7-45CE-915F-104096F72E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27F88C7-7337-4242-8523-C2572B26D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập xuất tồn" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,18 +595,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2056,9 @@
       <c r="X6" s="7">
         <v>15</v>
       </c>
-      <c r="Y6" s="8"/>
+      <c r="Y6" s="8">
+        <v>6</v>
+      </c>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
@@ -2067,7 +2069,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27F88C7-7337-4242-8523-C2572B26D0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A3171B-60CD-4BCF-B6E1-C0A39FB1D48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,11 +569,11 @@
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+'Hủy tb'!AH5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -595,18 +595,18 @@
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +1984,9 @@
       <c r="W5" s="8"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="8">
+        <v>1</v>
+      </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
@@ -1994,7 +1996,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="8">
         <f>SUM(C5:AG5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2059,7 +2061,9 @@
       <c r="Y6" s="8">
         <v>6</v>
       </c>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="8">
+        <v>1</v>
+      </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
@@ -2069,7 +2073,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">

--- a/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
+++ b/5.Other/Thiết bị kho gửi/2025/Kho gửi phòng sxbh 10_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5.Other\Thiết bị kho gửi\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A3171B-60CD-4BCF-B6E1-C0A39FB1D48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D859CBF-A18A-405C-8B00-BDDB68A0C046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,15 +565,15 @@
       </c>
       <c r="D4" s="3">
         <f>Nhập!AH5</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <f>Xuất!AH5+'Hủy tb'!AH5</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
         <f>C4+D4-E4</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>26</v>
@@ -591,22 +591,19 @@
       </c>
       <c r="D5" s="3">
         <f>Nhập!AH6</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="E5" s="3">
         <f>Xuất!AH6+'Hủy tb'!AH6</f>
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ref="F5:F6" si="0">C5+D5-E5</f>
-        <v>72</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1">
         <f>F5-G5</f>
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -909,7 +906,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,14 +1128,18 @@
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
+      <c r="AC5" s="8">
+        <v>8</v>
+      </c>
       <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
+      <c r="AE5" s="7">
+        <v>2</v>
+      </c>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8">
         <f>SUM(C5:AG5)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1184,12 +1185,14 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
+      <c r="AE6" s="7">
+        <v>60</v>
+      </c>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1763,7 +1766,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="AF8" sqref="AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,14 +1992,16 @@
       </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
+      <c r="AC5" s="8">
+        <v>5</v>
+      </c>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8">
         <f>SUM(C5:AG5)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -2066,14 +2071,22 @@
       </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="8"/>
+      <c r="AC6" s="8">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>34</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>2</v>
+      </c>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH19" si="0">SUM(C6:AG6)</f>
-        <v>251</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
